--- a/html/resources/1condition/mainTrials7.xlsx
+++ b/html/resources/1condition/mainTrials7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Documents/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83455DD6-4CEE-774A-BD18-5C3AC12823B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B64967-268E-D843-94F3-93330BA161CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4340" windowWidth="22740" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
